--- a/data files/Purchase Order/PIONEER.xlsx
+++ b/data files/Purchase Order/PIONEER.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B428C7B-C8EE-4499-8BCE-9291281579E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF2870-A922-41EF-B07E-30F6BF528074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>To,</t>
   </si>
@@ -94,29 +105,32 @@
     <t>3-Ply Ear Loop Mask with Melblown Filter</t>
   </si>
   <si>
-    <t>(100 pcs poly pack)</t>
-  </si>
-  <si>
     <t>Bouffant Cap-18" Regular Plus Quality</t>
   </si>
   <si>
-    <t>Colour: Blue</t>
-  </si>
-  <si>
-    <t>(CARTAN Pack)</t>
-  </si>
-  <si>
     <t>Bouffant Cap-21" Regular Plus Quality</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>BFE-95%, 80gsm, Colour: Blue</t>
+    <t>3-Ply Tie-on-Mask with Melblown Filter</t>
+  </si>
+  <si>
+    <t>23/09/24</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>*BFE-95%, 80gsm, Colour: Blue</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">BFE-95%, 80gsm, Colour: </t>
+      <t xml:space="preserve">*BFE-95%, 80gsm, Colour: </t>
     </r>
     <r>
       <rPr>
@@ -130,22 +144,16 @@
     </r>
   </si>
   <si>
-    <t>3-Ply Tie-on-Mask with Melblown Filter</t>
-  </si>
-  <si>
-    <t>BFE-95%, 80gsm, Colour: White</t>
-  </si>
-  <si>
-    <t>BFE-95%, 80gsm, Colour: WHITE</t>
-  </si>
-  <si>
-    <t>23/09/24</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>*BFE-95%, 80gsm, Colour: WHITE</t>
+  </si>
+  <si>
+    <t>*BFE-95%, 80gsm, Colour: White</t>
+  </si>
+  <si>
+    <t>*Colour: Blue</t>
+  </si>
+  <si>
+    <t>(100 pcs poly pack) (CARTAN Pack)</t>
   </si>
 </sst>
 </file>
@@ -803,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -898,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -911,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -962,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="32"/>
@@ -999,7 +1007,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="40">
         <v>30000</v>
@@ -1008,18 +1016,16 @@
         <v>15</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F19" s="36"/>
-      <c r="G19" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="G19" s="37"/>
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="40">
         <v>6000</v>
@@ -1028,18 +1034,16 @@
         <v>15</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F20" s="36"/>
-      <c r="G20" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="G20" s="37"/>
       <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="40">
         <v>6000</v>
@@ -1048,12 +1052,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F21" s="36"/>
-      <c r="G21" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="G21" s="37"/>
       <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1071,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C23" s="40">
         <v>4500</v>
@@ -1080,18 +1082,16 @@
         <v>15</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F23" s="36"/>
-      <c r="G23" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="G23" s="37"/>
       <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="41"/>
@@ -1115,27 +1115,25 @@
         <v>3</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F26" s="36"/>
-      <c r="G26" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="G26" s="37"/>
       <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="39" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="35"/>
@@ -1159,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29" s="40">
         <v>5000</v>
@@ -1168,18 +1166,16 @@
         <v>15</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F29" s="36"/>
-      <c r="G29" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="G29" s="37"/>
       <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="39" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="35"/>

--- a/data files/Purchase Order/PIONEER.xlsx
+++ b/data files/Purchase Order/PIONEER.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF2870-A922-41EF-B07E-30F6BF528074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983F05D-2724-4A37-8ECD-BAA51E3118B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>To,</t>
   </si>
@@ -111,16 +111,7 @@
     <t>Bouffant Cap-21" Regular Plus Quality</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>3-Ply Tie-on-Mask with Melblown Filter</t>
-  </si>
-  <si>
-    <t>23/09/24</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>Description</t>
@@ -154,6 +145,33 @@
   </si>
   <si>
     <t>(100 pcs poly pack) (CARTAN Pack)</t>
+  </si>
+  <si>
+    <t>Surgeon's Cap</t>
+  </si>
+  <si>
+    <t>Shoe Cover PE Heavy(ND)</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>N-95 Ear Loop Mask Grey Colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(50 pair poly pack) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(100 pcs poly pack) </t>
+  </si>
+  <si>
+    <t>Pkt</t>
+  </si>
+  <si>
+    <t>pkt</t>
+  </si>
+  <si>
+    <t>Bouffant Cap-18"  ECO Quality</t>
   </si>
 </sst>
 </file>
@@ -355,7 +373,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,9 +414,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -420,18 +435,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,6 +464,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,32 +825,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6"/>
@@ -843,8 +859,8 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="7"/>
@@ -855,16 +871,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
@@ -875,8 +891,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4"/>
@@ -887,16 +903,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4"/>
@@ -905,12 +921,10 @@
       <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="8"/>
@@ -918,12 +932,10 @@
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8"/>
@@ -931,33 +943,33 @@
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
       <c r="B11" s="11"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -970,252 +982,335 @@
         <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
       <c r="B17" s="3"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
         <v>1</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="39" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="36">
+        <v>150</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="36">
+        <v>100</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>2</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="36">
+        <v>90</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="40">
-        <v>30000</v>
-      </c>
-      <c r="D19" s="41" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>3</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="36">
+        <v>60</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E26" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>4</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="36">
+        <v>50</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>5</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="39" t="s">
+      <c r="E32" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="40">
-        <v>6000</v>
-      </c>
-      <c r="D20" s="41" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>5</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="40">
-        <v>6000</v>
-      </c>
-      <c r="D21" s="41" t="s">
+      <c r="E35" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>6</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
-        <v>2</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="40">
-        <v>4500</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="34">
+      <c r="E38" s="33"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>7</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="34">
-        <v>4</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="40">
-        <v>5000</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="31"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="27"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1232,7 +1327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
